--- a/ai.xlsx
+++ b/ai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4C1D5-F9D8-48E6-AD65-BC16193DAB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739FB60-5858-456D-B395-9960BC247C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -73,21 +73,6 @@
     <t>属性</t>
   </si>
   <si>
-    <t>小陈GPT💕</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml</t>
-  </si>
-  <si>
-    <t>https://gpt.1nav.ml/favicon.ico</t>
-  </si>
-  <si>
-    <t>向她提问，几乎无所不能</t>
-  </si>
-  <si>
-    <t>gpt</t>
-  </si>
-  <si>
     <t>LiblibAI</t>
   </si>
   <si>
@@ -239,7 +224,7 @@
   </si>
   <si>
     <t>web</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -261,49 +246,41 @@
       </rPr>
       <t>有趣网站</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://facecheck.id/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>face check</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FaceCheck-反向图像搜索-人脸识别搜索引擎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://weeklyreport.avemaria.fun/zh</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周报生成器 (avemaria.fun)</t>
   </si>
   <si>
     <t>周报生成器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微软 New Bing 演示站点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微软 New Bing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.aigodlike.com/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AIGODLIKE社区</t>
   </si>
   <si>
     <t>mj chatgpt教程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,43 +346,39 @@
       </rPr>
       <t>教程</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.heygen.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bing.vcanbb.top</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://learningprompt.wiki</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.aalab.com.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>一键 AI 资产编辑工具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>found ai</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://seaart.ai</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SeaArt-海艺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>海艺AI - 全民艺术创作平台，发现创意、捕捉灵感、即刻创作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -428,15 +401,15 @@
       </rPr>
       <t xml:space="preserve"> B站收藏 &lt;span&gt;(Stable Diffusion教程)&lt;/span&gt;</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AI模型分享&lt;span&gt;（包含在线AI绘画聊天）&lt;/span&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>http://emojihomepage.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Emoji Homepage 👀 - Copy and paste emoji. 💨 Fast and 👌 Simple.</t>
@@ -455,148 +428,136 @@
       </rPr>
       <t>👀</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1uT411t7jY</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>my3d (浙江传媒学院)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示词讲解很清晰，1.5倍速看</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://img.mjj.today/2023/04/29/4dde3f0985147426c1e3ab1130b5760c.jpg</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://i2.mjj.rip/2023/07/04/fa3397ab2f3d56de3cbe0b6402f31774.png</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://m.openaichat.cc/web/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>chatgpt1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需要扫码登录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://wz.aidaohang.com.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AI导航</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://ai.xiaohongshu.live/zh?f=1nav.ml</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>小红书文案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>纯正小红书风
 一键轻松创作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://wz.aidaohang.com.cn/taifeng/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>台风的AI魔法世界</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://a2a.top</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AI艺术天堂</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AI 艺术家的网址导航，让大家发现更多 AI 艺术的世界。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AI导航 | 链接AI世界</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://aust001.pythonanywhere.com/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>免费的 ChatGPT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>免费的 ChatGPT 镜像网站</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChatGPT-4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大学思政教材问答GPT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://chatmarx.zihaoai.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>向你的近代史、思修、毛概、马原教材提问吧！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ice.frostsky.com/2023/08/16/9873eaa9ac23b681ff5eb88f5ba3f524.png</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ice.frostsky.com/2023/08/16/0fd08c82105d3532fc80a3eba505a5ea.png</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ice.frostsky.com/2023/08/16/83145e75e6d2c6e1fc08811914109fc8.png</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://m.openaichat.cc/static/img/no_avatar.png</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/comfyanonymous/ComfyUI</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开源AI冒险社区</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ComfyUI 是一个基于节点流程式的stable diffusion AI 绘图工具WebUI</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ComfyUI </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>为冒险者提供GodLike般的AI图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,14 +589,26 @@
       </rPr>
       <t>角色生成器</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat-shared2.zhile.io/apple-touch-icon.png</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chatmarx.zihaoai.cn/logo.png</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.urlnode.com/file/0fad79ec4450811d9e06e.png</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,12 +623,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -818,11 +785,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,31 +811,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,46 +844,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1200,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,13 +1200,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>96</v>
+      <c r="G1" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1254,8 +1218,8 @@
       <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="25" t="s">
-        <v>95</v>
+      <c r="Y1" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -1273,11 +1237,11 @@
       <c r="AL1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="20" t="s">
-        <v>72</v>
+      <c r="AQ1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1331,7 +1295,7 @@
       <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="17"/>
+      <c r="R2" s="16"/>
       <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1311,7 @@
       <c r="W2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1363,7 +1327,7 @@
       <c r="AC2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="18"/>
+      <c r="AD2" s="17"/>
       <c r="AE2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1343,7 @@
       <c r="AI2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="18"/>
+      <c r="AJ2" s="17"/>
       <c r="AK2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1359,7 @@
       <c r="AO2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="17"/>
+      <c r="AP2" s="16"/>
       <c r="AQ2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1411,686 +1375,659 @@
       <c r="AU2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="17"/>
+      <c r="AV2" s="16"/>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
       <c r="BA2" s="6"/>
-      <c r="BB2" s="17"/>
+      <c r="BB2" s="16"/>
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
-      <c r="BH2" s="17"/>
+      <c r="BH2" s="16"/>
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
     </row>
-    <row r="3" spans="1:65" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="13"/>
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="N3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="Q3" s="13"/>
+      <c r="S3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="M3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="Z3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="1" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="S3" s="1" t="s">
+      <c r="AC3" s="13"/>
+      <c r="AE3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="14"/>
-      <c r="AE3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="20" t="s">
-        <v>121</v>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="7"/>
       <c r="AN3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BJ3" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BJ3" s="7"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="K4" s="13"/>
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="N4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="P4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="T4" s="7"/>
+      <c r="Y4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AE4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="1" t="s">
+      <c r="AL4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="1" t="s">
+      <c r="AM4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="AN4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="AO4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="T4" s="8"/>
-      <c r="Y4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC4" s="9"/>
-      <c r="AE4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BJ4" s="8"/>
+      <c r="AQ4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BJ4" s="7"/>
     </row>
     <row r="5" spans="1:65" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="K5" s="13"/>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="O5" s="8"/>
+      <c r="P5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="Q5" s="13"/>
+      <c r="T5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AE5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="AL5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="AN5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="15" t="s">
+      <c r="AQ5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="M6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="1" t="s">
+      <c r="N6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="T5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AE5" s="20" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AE6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AG6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AG5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH5" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ5" s="20" t="s">
+      <c r="AQ6" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AR5" s="8" t="s">
+      <c r="AR6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AS5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT5" s="20" t="s">
+      <c r="AT6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BJ5" s="8"/>
-    </row>
-    <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="BD6" s="7"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="M6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="W6" s="14"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AE6" s="20" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="13"/>
+      <c r="M7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AE7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR7" s="7"/>
+      <c r="AX7" s="9"/>
+      <c r="BD7" s="7"/>
+    </row>
+    <row r="8" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="Q8" s="13"/>
+      <c r="T8" s="9"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+    </row>
+    <row r="9" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="13"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="BD9" s="7"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AF6" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="20" t="s">
+      <c r="D10" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AK6" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ6" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="BD6" s="8"/>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AE7" s="30" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="BD10" s="7"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AF7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH7" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR7" s="8"/>
-      <c r="AX7" s="10"/>
-      <c r="BD7" s="8"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="Q8" s="14"/>
-      <c r="T8" s="10"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="14"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="BD9" s="8"/>
-    </row>
-    <row r="10" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="N10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="BD10" s="8"/>
-    </row>
-    <row r="11" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
-      <c r="N11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="10"/>
-      <c r="BD11" s="10"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="9"/>
+      <c r="BD11" s="9"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="N12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="10"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AX12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="N13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="N14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AX14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AX14" s="7"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="T15" s="10"/>
-      <c r="AR15" s="8"/>
-      <c r="AX15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="AR15" s="7"/>
+      <c r="AX15" s="7"/>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="T16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AX16" s="8"/>
+      <c r="T16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AX16" s="7"/>
     </row>
     <row r="17" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AX17" s="10"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AX17" s="9"/>
     </row>
     <row r="18" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="T18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
+      <c r="T18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="8"/>
-      <c r="AX19" s="8"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="7"/>
+      <c r="AX19" s="7"/>
     </row>
     <row r="20" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
+      <c r="AR20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
     </row>
     <row r="21" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR21" s="8"/>
-      <c r="AX21" s="8"/>
+      <c r="AR21" s="7"/>
+      <c r="AX21" s="7"/>
     </row>
     <row r="22" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR22" s="8"/>
-      <c r="AX22" s="8"/>
+      <c r="AR22" s="7"/>
+      <c r="AX22" s="7"/>
     </row>
     <row r="23" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
+      <c r="AR23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
     </row>
     <row r="24" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR24" s="8"/>
-      <c r="AX24" s="8"/>
+      <c r="AR24" s="7"/>
+      <c r="AX24" s="7"/>
     </row>
     <row r="25" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR25" s="11"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
+      <c r="AR25" s="10"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
     </row>
     <row r="26" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR26" s="8"/>
-      <c r="AX26" s="8"/>
+      <c r="AR26" s="7"/>
+      <c r="AX26" s="7"/>
     </row>
     <row r="27" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AR27" s="8"/>
-      <c r="AX27" s="8"/>
+      <c r="AR27" s="7"/>
+      <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX28" s="15"/>
+      <c r="AX28" s="14"/>
     </row>
     <row r="29" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX29" s="8"/>
+      <c r="AX29" s="7"/>
     </row>
     <row r="30" spans="20:51" x14ac:dyDescent="0.2">
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="8"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AM4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId3" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AA3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N3" r:id="rId8" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N4" r:id="rId9" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O4" r:id="rId10" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="T3" r:id="rId11" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H5" r:id="rId13" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I5" r:id="rId14" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AF3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AL3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AL5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AN5" r:id="rId22" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D7" r:id="rId24" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A7" r:id="rId25" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR3" r:id="rId27" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
-    <hyperlink ref="AT3" r:id="rId28" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
-    <hyperlink ref="AR4" r:id="rId29" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
-    <hyperlink ref="AT4" r:id="rId30" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
-    <hyperlink ref="AQ4" r:id="rId31" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
-    <hyperlink ref="B9" r:id="rId32" xr:uid="{B12E20D9-143C-4475-AB0E-6E81D673BCCD}"/>
-    <hyperlink ref="N7" r:id="rId33" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
-    <hyperlink ref="M7" r:id="rId34" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
-    <hyperlink ref="P7" r:id="rId35" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
-    <hyperlink ref="B10" r:id="rId36" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
-    <hyperlink ref="AR5" r:id="rId37" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
-    <hyperlink ref="H6" r:id="rId38" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
-    <hyperlink ref="AR6" r:id="rId39" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
-    <hyperlink ref="AQ6" r:id="rId40" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
-    <hyperlink ref="AT6" r:id="rId41" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
-    <hyperlink ref="Z4" r:id="rId42" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
-    <hyperlink ref="AA4" r:id="rId43" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
-    <hyperlink ref="AF4" r:id="rId44" xr:uid="{8C8DE9F5-A1F1-4A50-BD60-300906CDA1A7}"/>
-    <hyperlink ref="AL6" r:id="rId45" xr:uid="{BE2ED881-8576-4C08-9921-98345ABF5DEC}"/>
-    <hyperlink ref="AF5" r:id="rId46" xr:uid="{664C813B-FD8E-4406-9AAE-D1E0121E3B66}"/>
-    <hyperlink ref="B11" r:id="rId47" xr:uid="{996AA4F6-99B4-44DD-BDF8-5857E4EDF72E}"/>
-    <hyperlink ref="AL7" r:id="rId48" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
-    <hyperlink ref="AK7" r:id="rId49" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
-    <hyperlink ref="AF6" r:id="rId50" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
-    <hyperlink ref="AF7" r:id="rId51" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
-    <hyperlink ref="AG7" r:id="rId52" xr:uid="{0CC6A87D-ED8B-4558-A8A4-251E5D110442}"/>
-    <hyperlink ref="AG5" r:id="rId53" xr:uid="{73FF7FF6-3B88-4CC5-8408-9A07D9802835}"/>
-    <hyperlink ref="AS5" r:id="rId54" xr:uid="{98ABB712-873C-4368-8DD3-1E492FAA3687}"/>
-    <hyperlink ref="AG4" r:id="rId55" xr:uid="{4E97C503-0611-415E-8C9E-71CF2216488C}"/>
-    <hyperlink ref="B12" r:id="rId56" xr:uid="{E349FC2F-03CC-4A14-8F85-2E6743E56320}"/>
-    <hyperlink ref="B13" r:id="rId57" xr:uid="{787FD86A-D068-48CF-BB10-3AF98A064E11}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N3" r:id="rId6" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N4" r:id="rId7" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O4" r:id="rId8" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="T3" r:id="rId9" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H5" r:id="rId11" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I5" r:id="rId12" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AF3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AL3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AL5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AN5" r:id="rId20" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D6" r:id="rId22" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A6" r:id="rId23" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR3" r:id="rId25" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
+    <hyperlink ref="AT3" r:id="rId26" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
+    <hyperlink ref="AR4" r:id="rId27" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
+    <hyperlink ref="AT4" r:id="rId28" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
+    <hyperlink ref="AQ4" r:id="rId29" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
+    <hyperlink ref="N7" r:id="rId30" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
+    <hyperlink ref="M7" r:id="rId31" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
+    <hyperlink ref="P7" r:id="rId32" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
+    <hyperlink ref="B8" r:id="rId33" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
+    <hyperlink ref="AR5" r:id="rId34" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
+    <hyperlink ref="H6" r:id="rId35" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
+    <hyperlink ref="AR6" r:id="rId36" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
+    <hyperlink ref="AQ6" r:id="rId37" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
+    <hyperlink ref="AT6" r:id="rId38" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
+    <hyperlink ref="Z4" r:id="rId39" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
+    <hyperlink ref="AA4" r:id="rId40" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
+    <hyperlink ref="AF4" r:id="rId41" xr:uid="{8C8DE9F5-A1F1-4A50-BD60-300906CDA1A7}"/>
+    <hyperlink ref="AL6" r:id="rId42" xr:uid="{BE2ED881-8576-4C08-9921-98345ABF5DEC}"/>
+    <hyperlink ref="AF5" r:id="rId43" xr:uid="{664C813B-FD8E-4406-9AAE-D1E0121E3B66}"/>
+    <hyperlink ref="B9" r:id="rId44" xr:uid="{996AA4F6-99B4-44DD-BDF8-5857E4EDF72E}"/>
+    <hyperlink ref="AL7" r:id="rId45" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
+    <hyperlink ref="AK7" r:id="rId46" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
+    <hyperlink ref="AF6" r:id="rId47" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
+    <hyperlink ref="AF7" r:id="rId48" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
+    <hyperlink ref="AG7" r:id="rId49" xr:uid="{0CC6A87D-ED8B-4558-A8A4-251E5D110442}"/>
+    <hyperlink ref="AG4" r:id="rId50" xr:uid="{4E97C503-0611-415E-8C9E-71CF2216488C}"/>
+    <hyperlink ref="B10" r:id="rId51" xr:uid="{E349FC2F-03CC-4A14-8F85-2E6743E56320}"/>
+    <hyperlink ref="B11" r:id="rId52" xr:uid="{787FD86A-D068-48CF-BB10-3AF98A064E11}"/>
+    <hyperlink ref="AG6" r:id="rId53" xr:uid="{B52A2CF7-207D-4964-8EEF-89A9FE7A6577}"/>
+    <hyperlink ref="AS5" r:id="rId54" xr:uid="{89E69E31-1070-4B81-BB82-49B4E9D9F91C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/ai.xlsx
+++ b/ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739FB60-5858-456D-B395-9960BC247C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A93BAC-1A78-4904-B391-06B20E014146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>http://www.liandange.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/05/30/liandange.png</t>
   </si>
   <si>
     <t>国人制作的国内版C站</t>
@@ -589,10 +586,6 @@
       </rPr>
       <t>角色生成器</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://chat-shared2.zhile.io/apple-touch-icon.png</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1164,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1219,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -1238,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="AQ1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR1" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="BC1" s="5"/>
@@ -1442,21 +1435,21 @@
         <v>26</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AE3" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="s">
@@ -1470,13 +1463,13 @@
         <v>31</v>
       </c>
       <c r="AQ3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT3" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
@@ -1525,29 +1518,29 @@
       <c r="Q4" s="8"/>
       <c r="T4" s="7"/>
       <c r="Y4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC4" s="8"/>
       <c r="AE4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH4" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>42</v>
@@ -1555,9 +1548,7 @@
       <c r="AL4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="AM4" s="12"/>
       <c r="AN4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1565,13 +1556,13 @@
         <v>46</v>
       </c>
       <c r="AQ4" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AX4" s="7"/>
       <c r="BD4" s="7"/>
@@ -1579,13 +1570,13 @@
     </row>
     <row r="5" spans="1:65" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>47</v>
@@ -1593,57 +1584,55 @@
       <c r="H5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K5" s="13"/>
       <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="T5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AE5" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AN5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AN5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AQ5" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT5" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT5" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
@@ -1652,34 +1641,34 @@
     </row>
     <row r="6" spans="1:65" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="13"/>
       <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="T6" s="12"/>
@@ -1688,34 +1677,32 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AE6" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AG6" s="7"/>
       <c r="AH6" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT6" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="AT6" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
@@ -1723,26 +1710,26 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="K7" s="13"/>
       <c r="M7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="T7" s="12"/>
@@ -1751,25 +1738,25 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AE7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AG7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AG7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH7" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AK7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN7" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN7" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AX7" s="9"/>
@@ -1777,13 +1764,13 @@
     </row>
     <row r="8" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1801,13 +1788,13 @@
     </row>
     <row r="9" spans="1:65" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1824,13 +1811,13 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
@@ -1846,13 +1833,13 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
@@ -1972,62 +1959,59 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AM4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AA3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N3" r:id="rId6" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N4" r:id="rId7" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O4" r:id="rId8" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="T3" r:id="rId9" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H5" r:id="rId11" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I5" r:id="rId12" tooltip="https://3o.hk/images/2023/05/30/liandange.png" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AF3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AL3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AL5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AN5" r:id="rId20" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D6" r:id="rId22" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A6" r:id="rId23" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AR3" r:id="rId25" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
-    <hyperlink ref="AT3" r:id="rId26" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
-    <hyperlink ref="AR4" r:id="rId27" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
-    <hyperlink ref="AT4" r:id="rId28" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
-    <hyperlink ref="AQ4" r:id="rId29" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
-    <hyperlink ref="N7" r:id="rId30" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
-    <hyperlink ref="M7" r:id="rId31" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
-    <hyperlink ref="P7" r:id="rId32" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
-    <hyperlink ref="B8" r:id="rId33" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
-    <hyperlink ref="AR5" r:id="rId34" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
-    <hyperlink ref="H6" r:id="rId35" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
-    <hyperlink ref="AR6" r:id="rId36" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
-    <hyperlink ref="AQ6" r:id="rId37" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
-    <hyperlink ref="AT6" r:id="rId38" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
-    <hyperlink ref="Z4" r:id="rId39" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
-    <hyperlink ref="AA4" r:id="rId40" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
-    <hyperlink ref="AF4" r:id="rId41" xr:uid="{8C8DE9F5-A1F1-4A50-BD60-300906CDA1A7}"/>
-    <hyperlink ref="AL6" r:id="rId42" xr:uid="{BE2ED881-8576-4C08-9921-98345ABF5DEC}"/>
-    <hyperlink ref="AF5" r:id="rId43" xr:uid="{664C813B-FD8E-4406-9AAE-D1E0121E3B66}"/>
-    <hyperlink ref="B9" r:id="rId44" xr:uid="{996AA4F6-99B4-44DD-BDF8-5857E4EDF72E}"/>
-    <hyperlink ref="AL7" r:id="rId45" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
-    <hyperlink ref="AK7" r:id="rId46" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
-    <hyperlink ref="AF6" r:id="rId47" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
-    <hyperlink ref="AF7" r:id="rId48" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
-    <hyperlink ref="AG7" r:id="rId49" xr:uid="{0CC6A87D-ED8B-4558-A8A4-251E5D110442}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N3" r:id="rId5" tooltip="https://ai.dawnmark.cn" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N4" r:id="rId6" tooltip="http://www.atoolbox.net/Tool.php?Id=1101" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O4" r:id="rId7" tooltip="https://3o.hk/images/2023/04/30/tmp13F.png" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="T3" r:id="rId8" tooltip="https://www.acceleratori.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H5" r:id="rId10" tooltip="http://www.liandange.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AF3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AL3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AL5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AN5" r:id="rId18" tooltip="https://123.lingduquan.com/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D6" r:id="rId20" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A6" r:id="rId21" tooltip="https://ttsmaker.com/zh-cn" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AR3" r:id="rId23" xr:uid="{AF1A3415-B14E-4607-8EFB-B38D15549107}"/>
+    <hyperlink ref="AT3" r:id="rId24" display="https://facecheck.id/" xr:uid="{D187175A-2E5F-4D5A-92EC-82A6E80A6CCA}"/>
+    <hyperlink ref="AR4" r:id="rId25" xr:uid="{39C4BE9B-D456-41BB-A7A3-A0A0443C5CFA}"/>
+    <hyperlink ref="AT4" r:id="rId26" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{458A945F-FD62-4FC0-AD8B-F489D5A66FB6}"/>
+    <hyperlink ref="AQ4" r:id="rId27" display="https://weeklyreport.avemaria.fun/zh" xr:uid="{E05797E2-1393-45AC-B76B-76E4DC6AE9BF}"/>
+    <hyperlink ref="N7" r:id="rId28" xr:uid="{F88F6721-E51F-49E0-8C66-CDF39CF39C02}"/>
+    <hyperlink ref="M7" r:id="rId29" display="https://www.aigodlike.com/" xr:uid="{B99CA26A-2477-44C1-B417-B0BE6BEF6F00}"/>
+    <hyperlink ref="P7" r:id="rId30" display="https://www.aigodlike.com/" xr:uid="{2F04B75E-4981-4079-85B8-B87D35066D3D}"/>
+    <hyperlink ref="B8" r:id="rId31" xr:uid="{B6A068DE-F12F-4FC1-8595-76EB3DD283BC}"/>
+    <hyperlink ref="AR5" r:id="rId32" xr:uid="{7BA1E78E-4DA6-447D-AA25-037839111DD8}"/>
+    <hyperlink ref="H6" r:id="rId33" xr:uid="{31F00BD3-9AC5-4B70-9FA4-71D3490F0D60}"/>
+    <hyperlink ref="AR6" r:id="rId34" xr:uid="{DBA4B1CA-DFA5-4C3C-AE5E-9B7A6BEEF50F}"/>
+    <hyperlink ref="AQ6" r:id="rId35" display="http://emojihomepage.com/" xr:uid="{A875CC64-F833-4920-8039-BD8E59E2489A}"/>
+    <hyperlink ref="AT6" r:id="rId36" display="http://emojihomepage.com/" xr:uid="{4294BF97-31AB-46DA-8F70-6ED0F2AE2795}"/>
+    <hyperlink ref="Z4" r:id="rId37" xr:uid="{7AC78DA9-8365-477B-AC59-308BFACDFF27}"/>
+    <hyperlink ref="AA4" r:id="rId38" xr:uid="{1078C376-135F-4D2E-A383-3004E5716C38}"/>
+    <hyperlink ref="AF4" r:id="rId39" xr:uid="{8C8DE9F5-A1F1-4A50-BD60-300906CDA1A7}"/>
+    <hyperlink ref="AL6" r:id="rId40" xr:uid="{BE2ED881-8576-4C08-9921-98345ABF5DEC}"/>
+    <hyperlink ref="AF5" r:id="rId41" xr:uid="{664C813B-FD8E-4406-9AAE-D1E0121E3B66}"/>
+    <hyperlink ref="B9" r:id="rId42" xr:uid="{996AA4F6-99B4-44DD-BDF8-5857E4EDF72E}"/>
+    <hyperlink ref="AL7" r:id="rId43" xr:uid="{0CDD4E12-4B5F-4809-A0CF-38B9925E2A6B}"/>
+    <hyperlink ref="AK7" r:id="rId44" display="https://a2a.top/" xr:uid="{AE82C3F3-1C8A-4B6E-B1A8-975CA6FF8541}"/>
+    <hyperlink ref="AF6" r:id="rId45" xr:uid="{FEE655E2-C93A-438E-BE2F-3C43DE619DCE}"/>
+    <hyperlink ref="AF7" r:id="rId46" xr:uid="{3B415210-4BBE-4910-AB69-0F92AEECC5DF}"/>
+    <hyperlink ref="AG7" r:id="rId47" xr:uid="{0CC6A87D-ED8B-4558-A8A4-251E5D110442}"/>
+    <hyperlink ref="B10" r:id="rId48" xr:uid="{E349FC2F-03CC-4A14-8F85-2E6743E56320}"/>
+    <hyperlink ref="B11" r:id="rId49" xr:uid="{787FD86A-D068-48CF-BB10-3AF98A064E11}"/>
     <hyperlink ref="AG4" r:id="rId50" xr:uid="{4E97C503-0611-415E-8C9E-71CF2216488C}"/>
-    <hyperlink ref="B10" r:id="rId51" xr:uid="{E349FC2F-03CC-4A14-8F85-2E6743E56320}"/>
-    <hyperlink ref="B11" r:id="rId52" xr:uid="{787FD86A-D068-48CF-BB10-3AF98A064E11}"/>
-    <hyperlink ref="AG6" r:id="rId53" xr:uid="{B52A2CF7-207D-4964-8EEF-89A9FE7A6577}"/>
-    <hyperlink ref="AS5" r:id="rId54" xr:uid="{89E69E31-1070-4B81-BB82-49B4E9D9F91C}"/>
+    <hyperlink ref="AS5" r:id="rId51" xr:uid="{89E69E31-1070-4B81-BB82-49B4E9D9F91C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>